--- a/QMS Form s/F-QMS-RM-03A (1).xlsx
+++ b/QMS Form s/F-QMS-RM-03A (1).xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai.abdelrahman\Downloads\Quality\QMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\QMS Form s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE4C095-D065-4E4E-BF97-C65E94ECF206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A44AC7-C43E-42D7-93E9-A978F5122FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF5858FD-0120-44F5-A75B-BB9ED3052A38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF5858FD-0120-44F5-A75B-BB9ED3052A38}"/>
   </bookViews>
   <sheets>
     <sheet name="F-QMS-RM03A1" sheetId="1" r:id="rId1"/>
     <sheet name="F-QMS-RM-03A2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-QMS-RM03A1'!$A$1:$P$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-QMS-RM03A1'!$A$1:$P$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>Risk and Opportunity Register</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>Critical or High-severity bugs occurring in production despite testing, potentially causing system downtime or data loss (as per SOP SW-G4 severity classification).</t>
-  </si>
-  <si>
     <t>2 (Medium/Possible)</t>
   </si>
   <si>
@@ -108,16 +105,10 @@
     <t>R-SW-002</t>
   </si>
   <si>
-    <t>Failed deployment or release causing service disruption during the maintenance window, despite pre-release validation (as per SOP SW-S2).</t>
-  </si>
-  <si>
     <t>Software Supervisor</t>
   </si>
   <si>
     <t>R-SW-003</t>
-  </si>
-  <si>
-    <t>Business Analyst</t>
   </si>
   <si>
     <t>Per Change Request schedule</t>
@@ -129,9 +120,6 @@
     <t>Opportunity</t>
   </si>
   <si>
-    <t>Structured Software Development Lifecycle (SOP SW-G1) provides a framework for consistent, high-quality software delivery through defined phases of planning, design, testing, and deployment.</t>
-  </si>
-  <si>
     <t>3 (High/Likely)</t>
   </si>
   <si>
@@ -139,12 +127,6 @@
   </si>
   <si>
     <t>9 (High)</t>
-  </si>
-  <si>
-    <t>Pursue: Ensure strict adherence to the SDLC for all projects. Use the defined documents (SRS, test plans) to maintain quality and traceability.</t>
-  </si>
-  <si>
-    <t>Software Manager</t>
   </si>
   <si>
     <t>Ongoing</t>
@@ -163,9 +145,6 @@
   </si>
   <si>
     <t>Pursue: Actively use the catalog to manage intake. Negotiate and meet SLAs to demonstrate reliability. Use post-implementation surveys to gauge success.</t>
-  </si>
-  <si>
-    <t>Shared Service Coordinator</t>
   </si>
   <si>
     <t xml:space="preserve"> *Risk/Opportunity Level Matrix (Guide):</t>
@@ -216,16 +195,15 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Treat: Rollback to the previous version, Follow the defined bug fix procedure </t>
+      <t>Treat: Rollback to the previous version, Follow the defined bug fix procedure</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(SOP SW-G4)</t>
+      <t xml:space="preserve"> (SOP S-SW-BF-4)</t>
     </r>
     <r>
       <rPr>
@@ -239,16 +217,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Treat: Execute the rollback plan (referenced in </t>
-    </r>
-    <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>SOP SW-G1 and SW-S2)</t>
+      <t>Treat: Execute the rollback plan (referenced in SOP S-SW-SD-1 and S-SW-FR-2). M</t>
     </r>
     <r>
       <rPr>
@@ -257,121 +231,51 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>. Monitor systems for 24h post-release using APM tools. Conduct post-release review.</t>
+      <t>onitor systems for 24h post-release using APM tools. Conduct post-release review.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Treat: Mandatory top management approval for high-risk changes (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOP SW-G3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>). Deploy to staging first and execute comprehensive regression tests before production.</t>
-    </r>
+    <t>Failed deployment or release causing service disruption during the maintenance window, despite pre-release validation (as per SOP S-SW-FR-2).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Change Request implementation causing unintended side-effects or system instability due to complex dependencies (as per risk assessment in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOP SW-G3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
+    <t>Business Analyst/Product Owner</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Controlled intake and prioritization of New Feature Requests </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(SOP SW-G2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> ensures development efforts are aligned with business strategy and deliver maximum value.</t>
-    </r>
+    <t>Change Request implementation causing unintended side-effects or system instability due to complex dependencies (as per risk assessment in SOP S-SW-CR-3).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Software Manager &amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Feature Review Board, Business Analyst, Software Supervisor</t>
-    </r>
+    <t>Treat: Mandatory top management approval for high-risk changes (SOP S-SW-CR-3). Deploy to staging first and execute comprehensive regression tests before production.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Formal Software Service Catalog &amp; SLA framework </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(SOP SW-S1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> builds trust with subsidiaries by setting clear expectations, providing transparent prioritization, and enabling satisfaction tracking.</t>
-    </r>
+    <t>Critical or High-severity bugs occurring in production despite testing, potentially causing system downtime or data loss (as per SOP S-SW-BF-4 severity classification).</t>
+  </si>
+  <si>
+    <t>Structured Software Development Lifecycle (SOP S-SW-SD-1) provides a framework for consistent, high-quality software delivery through defined phases of planning, design, testing, and deployment.</t>
+  </si>
+  <si>
+    <t>Pursue: Ensure strict adherence to the SDLC for all projects. Use the defined documents (SRS,US, test plans) to maintain quality and traceability.</t>
+  </si>
+  <si>
+    <t>Controlled intake and prioritization of New Feature Requests (SOP S-SW-FR-2) ensures development efforts are aligned with business strategy and deliver maximum value.</t>
+  </si>
+  <si>
+    <t>Shared Service Coordinator,Software Manager</t>
+  </si>
+  <si>
+    <t>Formal Software Service Catalog &amp; SLA framework (SOP S-SW-SC-5) builds trust with subsidiaries by setting clear expectations, providing transparent prioritization, and enabling satisfaction tracking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Manager &amp; Feature Review Board, Business Analyst,UI/UX Desginer, Software Supervisor,Developer Team </t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,9 +331,15 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -446,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -545,51 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -630,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,22 +510,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -687,44 +537,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -736,14 +586,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,25 +1050,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044AF597-6015-48D5-AF7A-F09B190139CD}">
   <dimension ref="A1:BN347"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:L12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="12" max="12" width="25.3984375" customWidth="1"/>
-    <col min="13" max="13" width="13.69921875" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="21.69921875" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="62.25" customHeight="1">
+    <row r="1" spans="1:66" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1264,25 +1137,25 @@
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
     </row>
-    <row r="2" spans="1:66" ht="30">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:66" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1334,7 +1207,7 @@
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
     </row>
-    <row r="3" spans="1:66" ht="18">
+    <row r="3" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1402,11 +1275,13 @@
       <c r="BM3" s="1"/>
       <c r="BN3" s="1"/>
     </row>
-    <row r="4" spans="1:66" ht="18">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:66" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1472,7 +1347,7 @@
       <c r="BM4" s="1"/>
       <c r="BN4" s="1"/>
     </row>
-    <row r="5" spans="1:66" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="1:66" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1540,37 +1415,37 @@
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
     </row>
-    <row r="6" spans="1:66" ht="69.75" customHeight="1">
+    <row r="6" spans="1:66" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1628,42 +1503,42 @@
       <c r="BM6" s="1"/>
       <c r="BN6" s="1"/>
     </row>
-    <row r="7" spans="1:66" ht="146.25" customHeight="1">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:66" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="18" t="s">
+      <c r="P7" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1716,42 +1591,42 @@
       <c r="BM7" s="1"/>
       <c r="BN7" s="1"/>
     </row>
-    <row r="8" spans="1:66" ht="152.25" customHeight="1">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:66" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>13</v>
+      <c r="N8" s="18"/>
+      <c r="O8" s="13" t="s">
+        <v>18</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="18" t="s">
+      <c r="P8" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1804,42 +1679,42 @@
       <c r="BM8" s="1"/>
       <c r="BN8" s="1"/>
     </row>
-    <row r="9" spans="1:66" ht="147" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>24</v>
+    <row r="9" spans="1:66" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>22</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
+      <c r="C9" s="34" t="s">
+        <v>54</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25" t="s">
+      <c r="I9" s="36"/>
+      <c r="J9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="18" t="s">
-        <v>17</v>
+      <c r="K9" s="34" t="s">
+        <v>55</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>59</v>
+      <c r="L9" s="36"/>
+      <c r="M9" s="34" t="s">
+        <v>53</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25" t="s">
-        <v>25</v>
+      <c r="N9" s="36"/>
+      <c r="O9" s="33" t="s">
+        <v>23</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>20</v>
+      <c r="P9" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1892,42 +1767,42 @@
       <c r="BM9" s="1"/>
       <c r="BN9" s="1"/>
     </row>
-    <row r="10" spans="1:66" ht="132" customHeight="1">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:66" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="K10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>20</v>
+      <c r="P10" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1980,42 +1855,42 @@
       <c r="BM10" s="1"/>
       <c r="BN10" s="1"/>
     </row>
-    <row r="11" spans="1:66" ht="144" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>36</v>
+    <row r="11" spans="1:66" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25" t="s">
+      <c r="K11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="18" t="s">
-        <v>35</v>
+      <c r="N11" s="18"/>
+      <c r="O11" s="13" t="s">
+        <v>29</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>20</v>
+      <c r="P11" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2068,42 +1943,42 @@
       <c r="BM11" s="1"/>
       <c r="BN11" s="1"/>
     </row>
-    <row r="12" spans="1:66" ht="130.5" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>38</v>
+    <row r="12" spans="1:66" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>28</v>
+      <c r="B12" s="13" t="s">
+        <v>25</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>63</v>
+      <c r="C12" s="34" t="s">
+        <v>61</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25" t="s">
-        <v>30</v>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25" t="s">
-        <v>39</v>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="18" t="s">
-        <v>17</v>
+      <c r="I12" s="18"/>
+      <c r="J12" s="13" t="s">
+        <v>16</v>
       </c>
-      <c r="K12" s="25" t="s">
-        <v>40</v>
+      <c r="K12" s="17" t="s">
+        <v>34</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25" t="s">
-        <v>41</v>
+      <c r="L12" s="18"/>
+      <c r="M12" s="17" t="s">
+        <v>60</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="18" t="s">
-        <v>35</v>
+      <c r="N12" s="18"/>
+      <c r="O12" s="13" t="s">
+        <v>29</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>20</v>
+      <c r="P12" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2156,23 +2031,23 @@
       <c r="BM12" s="1"/>
       <c r="BN12" s="1"/>
     </row>
-    <row r="13" spans="1:66" ht="35.1" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
+    <row r="13" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2224,23 +2099,23 @@
       <c r="BM13" s="1"/>
       <c r="BN13" s="1"/>
     </row>
-    <row r="14" spans="1:66" ht="35.1" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
+    <row r="14" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2292,23 +2167,23 @@
       <c r="BM14" s="1"/>
       <c r="BN14" s="1"/>
     </row>
-    <row r="15" spans="1:66" ht="35.1" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
+    <row r="15" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2360,23 +2235,23 @@
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
     </row>
-    <row r="16" spans="1:66" ht="35.1" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
+    <row r="16" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2428,23 +2303,23 @@
       <c r="BM16" s="1"/>
       <c r="BN16" s="1"/>
     </row>
-    <row r="17" spans="1:66" ht="35.1" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
+    <row r="17" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2496,23 +2371,23 @@
       <c r="BM17" s="1"/>
       <c r="BN17" s="1"/>
     </row>
-    <row r="18" spans="1:66" ht="35.1" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
+    <row r="18" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2564,23 +2439,23 @@
       <c r="BM18" s="1"/>
       <c r="BN18" s="1"/>
     </row>
-    <row r="19" spans="1:66" ht="35.1" customHeight="1">
+    <row r="19" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2632,23 +2507,23 @@
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
     </row>
-    <row r="20" spans="1:66" ht="35.1" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="10"/>
+    <row r="20" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2700,23 +2575,23 @@
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
     </row>
-    <row r="21" spans="1:66" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="11"/>
+    <row r="21" spans="1:66" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2768,21 +2643,21 @@
       <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
     </row>
-    <row r="22" spans="1:66" ht="18">
+    <row r="22" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2836,21 +2711,21 @@
       <c r="BM22" s="1"/>
       <c r="BN22" s="1"/>
     </row>
-    <row r="23" spans="1:66" ht="18">
+    <row r="23" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2904,21 +2779,21 @@
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
     </row>
-    <row r="24" spans="1:66" ht="18">
+    <row r="24" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2972,21 +2847,21 @@
       <c r="BM24" s="1"/>
       <c r="BN24" s="1"/>
     </row>
-    <row r="25" spans="1:66" ht="18">
+    <row r="25" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -3040,21 +2915,21 @@
       <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
     </row>
-    <row r="26" spans="1:66" ht="18">
+    <row r="26" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -3108,21 +2983,21 @@
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
     </row>
-    <row r="27" spans="1:66" ht="18">
+    <row r="27" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3176,21 +3051,21 @@
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
     </row>
-    <row r="28" spans="1:66" ht="18">
+    <row r="28" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3244,21 +3119,21 @@
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
     </row>
-    <row r="29" spans="1:66" ht="18">
+    <row r="29" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -3312,21 +3187,21 @@
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
     </row>
-    <row r="30" spans="1:66" ht="18">
+    <row r="30" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3380,21 +3255,21 @@
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
     </row>
-    <row r="31" spans="1:66" ht="18">
+    <row r="31" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3448,21 +3323,21 @@
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
     </row>
-    <row r="32" spans="1:66" ht="18">
+    <row r="32" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3516,21 +3391,21 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
     </row>
-    <row r="33" spans="1:66" ht="18">
+    <row r="33" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3584,21 +3459,21 @@
       <c r="BM33" s="1"/>
       <c r="BN33" s="1"/>
     </row>
-    <row r="34" spans="1:66" ht="18">
+    <row r="34" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3652,21 +3527,21 @@
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
     </row>
-    <row r="35" spans="1:66" ht="18">
+    <row r="35" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3720,21 +3595,21 @@
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
     </row>
-    <row r="36" spans="1:66" ht="18">
+    <row r="36" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3788,21 +3663,21 @@
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
     </row>
-    <row r="37" spans="1:66" ht="18">
+    <row r="37" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3856,21 +3731,21 @@
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
     </row>
-    <row r="38" spans="1:66" ht="18">
+    <row r="38" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -3924,21 +3799,21 @@
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
     </row>
-    <row r="39" spans="1:66" ht="18">
+    <row r="39" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -3992,21 +3867,21 @@
       <c r="BM39" s="1"/>
       <c r="BN39" s="1"/>
     </row>
-    <row r="40" spans="1:66" ht="18">
+    <row r="40" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -4060,21 +3935,21 @@
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
     </row>
-    <row r="41" spans="1:66" ht="18">
+    <row r="41" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -4128,21 +4003,21 @@
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
     </row>
-    <row r="42" spans="1:66" ht="18">
+    <row r="42" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -4196,21 +4071,21 @@
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
     </row>
-    <row r="43" spans="1:66" ht="18">
+    <row r="43" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -4264,21 +4139,21 @@
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
     </row>
-    <row r="44" spans="1:66" ht="18">
+    <row r="44" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -4332,21 +4207,21 @@
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
     </row>
-    <row r="45" spans="1:66" ht="18">
+    <row r="45" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -4400,21 +4275,21 @@
       <c r="BM45" s="1"/>
       <c r="BN45" s="1"/>
     </row>
-    <row r="46" spans="1:66" ht="18">
+    <row r="46" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -4468,21 +4343,21 @@
       <c r="BM46" s="1"/>
       <c r="BN46" s="1"/>
     </row>
-    <row r="47" spans="1:66" ht="18">
+    <row r="47" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -4536,14 +4411,14 @@
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
     </row>
-    <row r="48" spans="1:66" ht="18">
+    <row r="48" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -4604,14 +4479,14 @@
       <c r="BM48" s="1"/>
       <c r="BN48" s="1"/>
     </row>
-    <row r="49" spans="1:66" ht="18">
+    <row r="49" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -4672,14 +4547,14 @@
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
     </row>
-    <row r="50" spans="1:66" ht="18">
+    <row r="50" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4740,14 +4615,14 @@
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
     </row>
-    <row r="51" spans="1:66" ht="18">
+    <row r="51" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -4808,14 +4683,14 @@
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
     </row>
-    <row r="52" spans="1:66" ht="18">
+    <row r="52" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -4876,14 +4751,14 @@
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
     </row>
-    <row r="53" spans="1:66" ht="18">
+    <row r="53" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -4944,14 +4819,14 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="1:66" ht="18">
+    <row r="54" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -5012,14 +4887,14 @@
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
     </row>
-    <row r="55" spans="1:66" ht="18">
+    <row r="55" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -5080,14 +4955,14 @@
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
     </row>
-    <row r="56" spans="1:66" ht="18">
+    <row r="56" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -5148,14 +5023,14 @@
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
     </row>
-    <row r="57" spans="1:66" ht="18">
+    <row r="57" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -5216,14 +5091,14 @@
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
     </row>
-    <row r="58" spans="1:66" ht="18">
+    <row r="58" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -5284,14 +5159,14 @@
       <c r="BM58" s="1"/>
       <c r="BN58" s="1"/>
     </row>
-    <row r="59" spans="1:66" ht="18">
+    <row r="59" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -5352,14 +5227,14 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
     </row>
-    <row r="60" spans="1:66" ht="18">
+    <row r="60" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -5420,14 +5295,14 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
     </row>
-    <row r="61" spans="1:66" ht="18">
+    <row r="61" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -5488,14 +5363,14 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
     </row>
-    <row r="62" spans="1:66" ht="18">
+    <row r="62" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -5556,14 +5431,14 @@
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
     </row>
-    <row r="63" spans="1:66" ht="18">
+    <row r="63" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -5624,14 +5499,14 @@
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
     </row>
-    <row r="64" spans="1:66" ht="18">
+    <row r="64" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -5692,14 +5567,14 @@
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
     </row>
-    <row r="65" spans="1:66" ht="18">
+    <row r="65" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -5760,14 +5635,14 @@
       <c r="BM65" s="1"/>
       <c r="BN65" s="1"/>
     </row>
-    <row r="66" spans="1:66" ht="18">
+    <row r="66" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -5828,14 +5703,14 @@
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
     </row>
-    <row r="67" spans="1:66" ht="18">
+    <row r="67" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -5896,14 +5771,14 @@
       <c r="BM67" s="1"/>
       <c r="BN67" s="1"/>
     </row>
-    <row r="68" spans="1:66" ht="18">
+    <row r="68" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -5964,14 +5839,14 @@
       <c r="BM68" s="1"/>
       <c r="BN68" s="1"/>
     </row>
-    <row r="69" spans="1:66" ht="18">
+    <row r="69" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -6032,14 +5907,14 @@
       <c r="BM69" s="1"/>
       <c r="BN69" s="1"/>
     </row>
-    <row r="70" spans="1:66" ht="18">
+    <row r="70" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -6100,7 +5975,7 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
     </row>
-    <row r="71" spans="1:66" ht="18">
+    <row r="71" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6168,7 +6043,7 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
     </row>
-    <row r="72" spans="1:66" ht="18">
+    <row r="72" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6236,12 +6111,12 @@
       <c r="BM72" s="1"/>
       <c r="BN72" s="1"/>
     </row>
-    <row r="73" spans="1:66" ht="18">
+    <row r="73" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -6304,12 +6179,12 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
     </row>
-    <row r="74" spans="1:66" ht="18">
+    <row r="74" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -6372,12 +6247,12 @@
       <c r="BM74" s="1"/>
       <c r="BN74" s="1"/>
     </row>
-    <row r="75" spans="1:66" ht="18">
+    <row r="75" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -6440,12 +6315,12 @@
       <c r="BM75" s="1"/>
       <c r="BN75" s="1"/>
     </row>
-    <row r="76" spans="1:66" ht="18">
+    <row r="76" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -6508,12 +6383,12 @@
       <c r="BM76" s="1"/>
       <c r="BN76" s="1"/>
     </row>
-    <row r="77" spans="1:66" ht="18">
+    <row r="77" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -6576,12 +6451,12 @@
       <c r="BM77" s="1"/>
       <c r="BN77" s="1"/>
     </row>
-    <row r="78" spans="1:66" ht="18">
+    <row r="78" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -6644,12 +6519,12 @@
       <c r="BM78" s="1"/>
       <c r="BN78" s="1"/>
     </row>
-    <row r="79" spans="1:66" ht="18">
+    <row r="79" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -6712,12 +6587,12 @@
       <c r="BM79" s="1"/>
       <c r="BN79" s="1"/>
     </row>
-    <row r="80" spans="1:66" ht="18">
+    <row r="80" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -6780,12 +6655,12 @@
       <c r="BM80" s="1"/>
       <c r="BN80" s="1"/>
     </row>
-    <row r="81" spans="1:66" ht="18">
+    <row r="81" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -6848,12 +6723,12 @@
       <c r="BM81" s="1"/>
       <c r="BN81" s="1"/>
     </row>
-    <row r="82" spans="1:66" ht="18">
+    <row r="82" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6916,12 +6791,12 @@
       <c r="BM82" s="1"/>
       <c r="BN82" s="1"/>
     </row>
-    <row r="83" spans="1:66" ht="18">
+    <row r="83" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6984,12 +6859,12 @@
       <c r="BM83" s="1"/>
       <c r="BN83" s="1"/>
     </row>
-    <row r="84" spans="1:66" ht="18">
+    <row r="84" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -7052,12 +6927,12 @@
       <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
     </row>
-    <row r="85" spans="1:66" ht="18">
+    <row r="85" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -7120,7 +6995,7 @@
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
     </row>
-    <row r="86" spans="1:66" ht="18">
+    <row r="86" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7188,7 +7063,7 @@
       <c r="BM86" s="1"/>
       <c r="BN86" s="1"/>
     </row>
-    <row r="87" spans="1:66" ht="18">
+    <row r="87" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7256,7 +7131,7 @@
       <c r="BM87" s="1"/>
       <c r="BN87" s="1"/>
     </row>
-    <row r="88" spans="1:66" ht="18">
+    <row r="88" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7324,7 +7199,7 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
     </row>
-    <row r="89" spans="1:66" ht="18">
+    <row r="89" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7392,7 +7267,7 @@
       <c r="BM89" s="1"/>
       <c r="BN89" s="1"/>
     </row>
-    <row r="90" spans="1:66" ht="18">
+    <row r="90" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7460,7 +7335,7 @@
       <c r="BM90" s="1"/>
       <c r="BN90" s="1"/>
     </row>
-    <row r="91" spans="1:66" ht="18">
+    <row r="91" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7528,7 +7403,7 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
     </row>
-    <row r="92" spans="1:66" ht="18">
+    <row r="92" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7596,7 +7471,7 @@
       <c r="BM92" s="1"/>
       <c r="BN92" s="1"/>
     </row>
-    <row r="93" spans="1:66" ht="18">
+    <row r="93" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7664,7 +7539,7 @@
       <c r="BM93" s="1"/>
       <c r="BN93" s="1"/>
     </row>
-    <row r="94" spans="1:66" ht="18">
+    <row r="94" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7732,7 +7607,7 @@
       <c r="BM94" s="1"/>
       <c r="BN94" s="1"/>
     </row>
-    <row r="95" spans="1:66" ht="18">
+    <row r="95" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7800,7 +7675,7 @@
       <c r="BM95" s="1"/>
       <c r="BN95" s="1"/>
     </row>
-    <row r="96" spans="1:66" ht="18">
+    <row r="96" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7868,7 +7743,7 @@
       <c r="BM96" s="1"/>
       <c r="BN96" s="1"/>
     </row>
-    <row r="97" spans="1:66" ht="18">
+    <row r="97" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7936,7 +7811,7 @@
       <c r="BM97" s="1"/>
       <c r="BN97" s="1"/>
     </row>
-    <row r="98" spans="1:66" ht="18">
+    <row r="98" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8004,7 +7879,7 @@
       <c r="BM98" s="1"/>
       <c r="BN98" s="1"/>
     </row>
-    <row r="99" spans="1:66" ht="18">
+    <row r="99" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8072,7 +7947,7 @@
       <c r="BM99" s="1"/>
       <c r="BN99" s="1"/>
     </row>
-    <row r="100" spans="1:66" ht="18">
+    <row r="100" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8140,7 +8015,7 @@
       <c r="BM100" s="1"/>
       <c r="BN100" s="1"/>
     </row>
-    <row r="101" spans="1:66" ht="18">
+    <row r="101" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8208,7 +8083,7 @@
       <c r="BM101" s="1"/>
       <c r="BN101" s="1"/>
     </row>
-    <row r="102" spans="1:66" ht="18">
+    <row r="102" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8276,7 +8151,7 @@
       <c r="BM102" s="1"/>
       <c r="BN102" s="1"/>
     </row>
-    <row r="103" spans="1:66" ht="18">
+    <row r="103" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8344,7 +8219,7 @@
       <c r="BM103" s="1"/>
       <c r="BN103" s="1"/>
     </row>
-    <row r="104" spans="1:66" ht="18">
+    <row r="104" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8412,7 +8287,7 @@
       <c r="BM104" s="1"/>
       <c r="BN104" s="1"/>
     </row>
-    <row r="105" spans="1:66" ht="18">
+    <row r="105" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8480,7 +8355,7 @@
       <c r="BM105" s="1"/>
       <c r="BN105" s="1"/>
     </row>
-    <row r="106" spans="1:66" ht="18">
+    <row r="106" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8548,7 +8423,7 @@
       <c r="BM106" s="1"/>
       <c r="BN106" s="1"/>
     </row>
-    <row r="107" spans="1:66" ht="18">
+    <row r="107" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8616,7 +8491,7 @@
       <c r="BM107" s="1"/>
       <c r="BN107" s="1"/>
     </row>
-    <row r="108" spans="1:66" ht="18">
+    <row r="108" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8684,7 +8559,7 @@
       <c r="BM108" s="1"/>
       <c r="BN108" s="1"/>
     </row>
-    <row r="109" spans="1:66" ht="18">
+    <row r="109" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8752,7 +8627,7 @@
       <c r="BM109" s="1"/>
       <c r="BN109" s="1"/>
     </row>
-    <row r="110" spans="1:66" ht="18">
+    <row r="110" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8820,7 +8695,7 @@
       <c r="BM110" s="1"/>
       <c r="BN110" s="1"/>
     </row>
-    <row r="111" spans="1:66" ht="18">
+    <row r="111" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8888,7 +8763,7 @@
       <c r="BM111" s="1"/>
       <c r="BN111" s="1"/>
     </row>
-    <row r="112" spans="1:66" ht="18">
+    <row r="112" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -8956,7 +8831,7 @@
       <c r="BM112" s="1"/>
       <c r="BN112" s="1"/>
     </row>
-    <row r="113" spans="1:66" ht="18">
+    <row r="113" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -9024,7 +8899,7 @@
       <c r="BM113" s="1"/>
       <c r="BN113" s="1"/>
     </row>
-    <row r="114" spans="1:66" ht="18">
+    <row r="114" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -9092,7 +8967,7 @@
       <c r="BM114" s="1"/>
       <c r="BN114" s="1"/>
     </row>
-    <row r="115" spans="1:66" ht="18">
+    <row r="115" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -9160,7 +9035,7 @@
       <c r="BM115" s="1"/>
       <c r="BN115" s="1"/>
     </row>
-    <row r="116" spans="1:66" ht="18">
+    <row r="116" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -9228,7 +9103,7 @@
       <c r="BM116" s="1"/>
       <c r="BN116" s="1"/>
     </row>
-    <row r="117" spans="1:66" ht="18">
+    <row r="117" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -9296,7 +9171,7 @@
       <c r="BM117" s="1"/>
       <c r="BN117" s="1"/>
     </row>
-    <row r="118" spans="1:66" ht="18">
+    <row r="118" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -9364,7 +9239,7 @@
       <c r="BM118" s="1"/>
       <c r="BN118" s="1"/>
     </row>
-    <row r="119" spans="1:66" ht="18">
+    <row r="119" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -9432,7 +9307,7 @@
       <c r="BM119" s="1"/>
       <c r="BN119" s="1"/>
     </row>
-    <row r="120" spans="1:66" ht="18">
+    <row r="120" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -9500,7 +9375,7 @@
       <c r="BM120" s="1"/>
       <c r="BN120" s="1"/>
     </row>
-    <row r="121" spans="1:66" ht="18">
+    <row r="121" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -9568,7 +9443,7 @@
       <c r="BM121" s="1"/>
       <c r="BN121" s="1"/>
     </row>
-    <row r="122" spans="1:66" ht="18">
+    <row r="122" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -9636,7 +9511,7 @@
       <c r="BM122" s="1"/>
       <c r="BN122" s="1"/>
     </row>
-    <row r="123" spans="1:66" ht="18">
+    <row r="123" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -9704,7 +9579,7 @@
       <c r="BM123" s="1"/>
       <c r="BN123" s="1"/>
     </row>
-    <row r="124" spans="1:66" ht="18">
+    <row r="124" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -9772,7 +9647,7 @@
       <c r="BM124" s="1"/>
       <c r="BN124" s="1"/>
     </row>
-    <row r="125" spans="1:66" ht="18">
+    <row r="125" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -9840,7 +9715,7 @@
       <c r="BM125" s="1"/>
       <c r="BN125" s="1"/>
     </row>
-    <row r="126" spans="1:66" ht="18">
+    <row r="126" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -9908,7 +9783,7 @@
       <c r="BM126" s="1"/>
       <c r="BN126" s="1"/>
     </row>
-    <row r="127" spans="1:66" ht="18">
+    <row r="127" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -9976,7 +9851,7 @@
       <c r="BM127" s="1"/>
       <c r="BN127" s="1"/>
     </row>
-    <row r="128" spans="1:66" ht="18">
+    <row r="128" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -10044,7 +9919,7 @@
       <c r="BM128" s="1"/>
       <c r="BN128" s="1"/>
     </row>
-    <row r="129" spans="1:66" ht="18">
+    <row r="129" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -10112,7 +9987,7 @@
       <c r="BM129" s="1"/>
       <c r="BN129" s="1"/>
     </row>
-    <row r="130" spans="1:66" ht="18">
+    <row r="130" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -10180,7 +10055,7 @@
       <c r="BM130" s="1"/>
       <c r="BN130" s="1"/>
     </row>
-    <row r="131" spans="1:66" ht="18">
+    <row r="131" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -10248,7 +10123,7 @@
       <c r="BM131" s="1"/>
       <c r="BN131" s="1"/>
     </row>
-    <row r="132" spans="1:66" ht="18">
+    <row r="132" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -10316,7 +10191,7 @@
       <c r="BM132" s="1"/>
       <c r="BN132" s="1"/>
     </row>
-    <row r="133" spans="1:66" ht="18">
+    <row r="133" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -10384,7 +10259,7 @@
       <c r="BM133" s="1"/>
       <c r="BN133" s="1"/>
     </row>
-    <row r="134" spans="1:66" ht="18">
+    <row r="134" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -10452,7 +10327,7 @@
       <c r="BM134" s="1"/>
       <c r="BN134" s="1"/>
     </row>
-    <row r="135" spans="1:66" ht="18">
+    <row r="135" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -10520,7 +10395,7 @@
       <c r="BM135" s="1"/>
       <c r="BN135" s="1"/>
     </row>
-    <row r="136" spans="1:66" ht="18">
+    <row r="136" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -10588,7 +10463,7 @@
       <c r="BM136" s="1"/>
       <c r="BN136" s="1"/>
     </row>
-    <row r="137" spans="1:66" ht="18">
+    <row r="137" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -10656,7 +10531,7 @@
       <c r="BM137" s="1"/>
       <c r="BN137" s="1"/>
     </row>
-    <row r="138" spans="1:66" ht="18">
+    <row r="138" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -10724,7 +10599,7 @@
       <c r="BM138" s="1"/>
       <c r="BN138" s="1"/>
     </row>
-    <row r="139" spans="1:66" ht="18">
+    <row r="139" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -10792,7 +10667,7 @@
       <c r="BM139" s="1"/>
       <c r="BN139" s="1"/>
     </row>
-    <row r="140" spans="1:66" ht="18">
+    <row r="140" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -10860,7 +10735,7 @@
       <c r="BM140" s="1"/>
       <c r="BN140" s="1"/>
     </row>
-    <row r="141" spans="1:66" ht="18">
+    <row r="141" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -10928,7 +10803,7 @@
       <c r="BM141" s="1"/>
       <c r="BN141" s="1"/>
     </row>
-    <row r="142" spans="1:66" ht="18">
+    <row r="142" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -10996,7 +10871,7 @@
       <c r="BM142" s="1"/>
       <c r="BN142" s="1"/>
     </row>
-    <row r="143" spans="1:66" ht="18">
+    <row r="143" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -11064,7 +10939,7 @@
       <c r="BM143" s="1"/>
       <c r="BN143" s="1"/>
     </row>
-    <row r="144" spans="1:66" ht="18">
+    <row r="144" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -11132,7 +11007,7 @@
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
     </row>
-    <row r="145" spans="1:66" ht="18">
+    <row r="145" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -11200,7 +11075,7 @@
       <c r="BM145" s="1"/>
       <c r="BN145" s="1"/>
     </row>
-    <row r="146" spans="1:66" ht="18">
+    <row r="146" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -11268,7 +11143,7 @@
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
     </row>
-    <row r="147" spans="1:66" ht="18">
+    <row r="147" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -11336,7 +11211,7 @@
       <c r="BM147" s="1"/>
       <c r="BN147" s="1"/>
     </row>
-    <row r="148" spans="1:66" ht="18">
+    <row r="148" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -11404,7 +11279,7 @@
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
     </row>
-    <row r="149" spans="1:66" ht="18">
+    <row r="149" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -11472,7 +11347,7 @@
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
     </row>
-    <row r="150" spans="1:66" ht="18">
+    <row r="150" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -11540,7 +11415,7 @@
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
     </row>
-    <row r="151" spans="1:66" ht="18">
+    <row r="151" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -11608,7 +11483,7 @@
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
     </row>
-    <row r="152" spans="1:66" ht="18">
+    <row r="152" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -11676,7 +11551,7 @@
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
     </row>
-    <row r="153" spans="1:66" ht="18">
+    <row r="153" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -11744,7 +11619,7 @@
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
     </row>
-    <row r="154" spans="1:66" ht="18">
+    <row r="154" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -11812,7 +11687,7 @@
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
     </row>
-    <row r="155" spans="1:66" ht="18">
+    <row r="155" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -11880,7 +11755,7 @@
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
     </row>
-    <row r="156" spans="1:66" ht="18">
+    <row r="156" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -11948,7 +11823,7 @@
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
     </row>
-    <row r="157" spans="1:66" ht="18">
+    <row r="157" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -12016,7 +11891,7 @@
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
     </row>
-    <row r="158" spans="1:66" ht="18">
+    <row r="158" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -12084,7 +11959,7 @@
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
     </row>
-    <row r="159" spans="1:66" ht="18">
+    <row r="159" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -12152,7 +12027,7 @@
       <c r="BM159" s="1"/>
       <c r="BN159" s="1"/>
     </row>
-    <row r="160" spans="1:66" ht="18">
+    <row r="160" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -12220,7 +12095,7 @@
       <c r="BM160" s="1"/>
       <c r="BN160" s="1"/>
     </row>
-    <row r="161" spans="1:66" ht="18">
+    <row r="161" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -12288,7 +12163,7 @@
       <c r="BM161" s="1"/>
       <c r="BN161" s="1"/>
     </row>
-    <row r="162" spans="1:66" ht="18">
+    <row r="162" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -12356,7 +12231,7 @@
       <c r="BM162" s="1"/>
       <c r="BN162" s="1"/>
     </row>
-    <row r="163" spans="1:66" ht="18">
+    <row r="163" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -12424,7 +12299,7 @@
       <c r="BM163" s="1"/>
       <c r="BN163" s="1"/>
     </row>
-    <row r="164" spans="1:66" ht="18">
+    <row r="164" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -12492,7 +12367,7 @@
       <c r="BM164" s="1"/>
       <c r="BN164" s="1"/>
     </row>
-    <row r="165" spans="1:66" ht="18">
+    <row r="165" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -12560,7 +12435,7 @@
       <c r="BM165" s="1"/>
       <c r="BN165" s="1"/>
     </row>
-    <row r="166" spans="1:66" ht="18">
+    <row r="166" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -12628,7 +12503,7 @@
       <c r="BM166" s="1"/>
       <c r="BN166" s="1"/>
     </row>
-    <row r="167" spans="1:66" ht="18">
+    <row r="167" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -12696,7 +12571,7 @@
       <c r="BM167" s="1"/>
       <c r="BN167" s="1"/>
     </row>
-    <row r="168" spans="1:66" ht="18">
+    <row r="168" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -12764,7 +12639,7 @@
       <c r="BM168" s="1"/>
       <c r="BN168" s="1"/>
     </row>
-    <row r="169" spans="1:66" ht="18">
+    <row r="169" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -12832,7 +12707,7 @@
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
     </row>
-    <row r="170" spans="1:66" ht="18">
+    <row r="170" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -12900,7 +12775,7 @@
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
     </row>
-    <row r="171" spans="1:66" ht="18">
+    <row r="171" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -12968,7 +12843,7 @@
       <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
     </row>
-    <row r="172" spans="1:66" ht="18">
+    <row r="172" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -13036,7 +12911,7 @@
       <c r="BM172" s="1"/>
       <c r="BN172" s="1"/>
     </row>
-    <row r="173" spans="1:66" ht="18">
+    <row r="173" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -13104,7 +12979,7 @@
       <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
     </row>
-    <row r="174" spans="1:66" ht="18">
+    <row r="174" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -13172,7 +13047,7 @@
       <c r="BM174" s="1"/>
       <c r="BN174" s="1"/>
     </row>
-    <row r="175" spans="1:66" ht="18">
+    <row r="175" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -13240,7 +13115,7 @@
       <c r="BM175" s="1"/>
       <c r="BN175" s="1"/>
     </row>
-    <row r="176" spans="1:66" ht="18">
+    <row r="176" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -13308,7 +13183,7 @@
       <c r="BM176" s="1"/>
       <c r="BN176" s="1"/>
     </row>
-    <row r="177" spans="1:66" ht="18">
+    <row r="177" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -13376,7 +13251,7 @@
       <c r="BM177" s="1"/>
       <c r="BN177" s="1"/>
     </row>
-    <row r="178" spans="1:66" ht="18">
+    <row r="178" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -13444,7 +13319,7 @@
       <c r="BM178" s="1"/>
       <c r="BN178" s="1"/>
     </row>
-    <row r="179" spans="1:66" ht="18">
+    <row r="179" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -13512,7 +13387,7 @@
       <c r="BM179" s="1"/>
       <c r="BN179" s="1"/>
     </row>
-    <row r="180" spans="1:66" ht="18">
+    <row r="180" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -13580,7 +13455,7 @@
       <c r="BM180" s="1"/>
       <c r="BN180" s="1"/>
     </row>
-    <row r="181" spans="1:66" ht="18">
+    <row r="181" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -13648,7 +13523,7 @@
       <c r="BM181" s="1"/>
       <c r="BN181" s="1"/>
     </row>
-    <row r="182" spans="1:66" ht="18">
+    <row r="182" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -13716,7 +13591,7 @@
       <c r="BM182" s="1"/>
       <c r="BN182" s="1"/>
     </row>
-    <row r="183" spans="1:66" ht="18">
+    <row r="183" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -13784,7 +13659,7 @@
       <c r="BM183" s="1"/>
       <c r="BN183" s="1"/>
     </row>
-    <row r="184" spans="1:66" ht="18">
+    <row r="184" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -13852,7 +13727,7 @@
       <c r="BM184" s="1"/>
       <c r="BN184" s="1"/>
     </row>
-    <row r="185" spans="1:66" ht="18">
+    <row r="185" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -13920,7 +13795,7 @@
       <c r="BM185" s="1"/>
       <c r="BN185" s="1"/>
     </row>
-    <row r="186" spans="1:66" ht="18">
+    <row r="186" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -13988,7 +13863,7 @@
       <c r="BM186" s="1"/>
       <c r="BN186" s="1"/>
     </row>
-    <row r="187" spans="1:66" ht="18">
+    <row r="187" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -14056,7 +13931,7 @@
       <c r="BM187" s="1"/>
       <c r="BN187" s="1"/>
     </row>
-    <row r="188" spans="1:66" ht="18">
+    <row r="188" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -14124,7 +13999,7 @@
       <c r="BM188" s="1"/>
       <c r="BN188" s="1"/>
     </row>
-    <row r="189" spans="1:66" ht="18">
+    <row r="189" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -14192,7 +14067,7 @@
       <c r="BM189" s="1"/>
       <c r="BN189" s="1"/>
     </row>
-    <row r="190" spans="1:66" ht="18">
+    <row r="190" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -14260,7 +14135,7 @@
       <c r="BM190" s="1"/>
       <c r="BN190" s="1"/>
     </row>
-    <row r="191" spans="1:66" ht="18">
+    <row r="191" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -14328,7 +14203,7 @@
       <c r="BM191" s="1"/>
       <c r="BN191" s="1"/>
     </row>
-    <row r="192" spans="1:66" ht="18">
+    <row r="192" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -14396,7 +14271,7 @@
       <c r="BM192" s="1"/>
       <c r="BN192" s="1"/>
     </row>
-    <row r="193" spans="1:66" ht="18">
+    <row r="193" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -14464,7 +14339,7 @@
       <c r="BM193" s="1"/>
       <c r="BN193" s="1"/>
     </row>
-    <row r="194" spans="1:66" ht="18">
+    <row r="194" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -14532,7 +14407,7 @@
       <c r="BM194" s="1"/>
       <c r="BN194" s="1"/>
     </row>
-    <row r="195" spans="1:66" ht="18">
+    <row r="195" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -14600,7 +14475,7 @@
       <c r="BM195" s="1"/>
       <c r="BN195" s="1"/>
     </row>
-    <row r="196" spans="1:66" ht="18">
+    <row r="196" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -14668,7 +14543,7 @@
       <c r="BM196" s="1"/>
       <c r="BN196" s="1"/>
     </row>
-    <row r="197" spans="1:66" ht="18">
+    <row r="197" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -14736,7 +14611,7 @@
       <c r="BM197" s="1"/>
       <c r="BN197" s="1"/>
     </row>
-    <row r="198" spans="1:66" ht="18">
+    <row r="198" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -14804,7 +14679,7 @@
       <c r="BM198" s="1"/>
       <c r="BN198" s="1"/>
     </row>
-    <row r="199" spans="1:66" ht="18">
+    <row r="199" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -14872,7 +14747,7 @@
       <c r="BM199" s="1"/>
       <c r="BN199" s="1"/>
     </row>
-    <row r="200" spans="1:66" ht="18">
+    <row r="200" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -14940,7 +14815,7 @@
       <c r="BM200" s="1"/>
       <c r="BN200" s="1"/>
     </row>
-    <row r="201" spans="1:66" ht="18">
+    <row r="201" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -15008,7 +14883,7 @@
       <c r="BM201" s="1"/>
       <c r="BN201" s="1"/>
     </row>
-    <row r="202" spans="1:66" ht="18">
+    <row r="202" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -15076,7 +14951,7 @@
       <c r="BM202" s="1"/>
       <c r="BN202" s="1"/>
     </row>
-    <row r="203" spans="1:66" ht="18">
+    <row r="203" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -15144,7 +15019,7 @@
       <c r="BM203" s="1"/>
       <c r="BN203" s="1"/>
     </row>
-    <row r="204" spans="1:66" ht="18">
+    <row r="204" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -15212,7 +15087,7 @@
       <c r="BM204" s="1"/>
       <c r="BN204" s="1"/>
     </row>
-    <row r="205" spans="1:66" ht="18">
+    <row r="205" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -15280,7 +15155,7 @@
       <c r="BM205" s="1"/>
       <c r="BN205" s="1"/>
     </row>
-    <row r="206" spans="1:66" ht="18">
+    <row r="206" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -15348,7 +15223,7 @@
       <c r="BM206" s="1"/>
       <c r="BN206" s="1"/>
     </row>
-    <row r="207" spans="1:66" ht="18">
+    <row r="207" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -15416,7 +15291,7 @@
       <c r="BM207" s="1"/>
       <c r="BN207" s="1"/>
     </row>
-    <row r="208" spans="1:66" ht="18">
+    <row r="208" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -15484,7 +15359,7 @@
       <c r="BM208" s="1"/>
       <c r="BN208" s="1"/>
     </row>
-    <row r="209" spans="1:66" ht="18">
+    <row r="209" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -15552,7 +15427,7 @@
       <c r="BM209" s="1"/>
       <c r="BN209" s="1"/>
     </row>
-    <row r="210" spans="1:66" ht="18">
+    <row r="210" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -15620,7 +15495,7 @@
       <c r="BM210" s="1"/>
       <c r="BN210" s="1"/>
     </row>
-    <row r="211" spans="1:66" ht="18">
+    <row r="211" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -15688,7 +15563,7 @@
       <c r="BM211" s="1"/>
       <c r="BN211" s="1"/>
     </row>
-    <row r="212" spans="1:66" ht="18">
+    <row r="212" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -15756,7 +15631,7 @@
       <c r="BM212" s="1"/>
       <c r="BN212" s="1"/>
     </row>
-    <row r="213" spans="1:66" ht="18">
+    <row r="213" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -15824,7 +15699,7 @@
       <c r="BM213" s="1"/>
       <c r="BN213" s="1"/>
     </row>
-    <row r="214" spans="1:66" ht="18">
+    <row r="214" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -15892,7 +15767,7 @@
       <c r="BM214" s="1"/>
       <c r="BN214" s="1"/>
     </row>
-    <row r="215" spans="1:66" ht="18">
+    <row r="215" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -15960,7 +15835,7 @@
       <c r="BM215" s="1"/>
       <c r="BN215" s="1"/>
     </row>
-    <row r="216" spans="1:66" ht="18">
+    <row r="216" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -16028,7 +15903,7 @@
       <c r="BM216" s="1"/>
       <c r="BN216" s="1"/>
     </row>
-    <row r="217" spans="1:66" ht="18">
+    <row r="217" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -16096,7 +15971,7 @@
       <c r="BM217" s="1"/>
       <c r="BN217" s="1"/>
     </row>
-    <row r="218" spans="1:66" ht="18">
+    <row r="218" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -16164,7 +16039,7 @@
       <c r="BM218" s="1"/>
       <c r="BN218" s="1"/>
     </row>
-    <row r="219" spans="1:66" ht="18">
+    <row r="219" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -16232,7 +16107,7 @@
       <c r="BM219" s="1"/>
       <c r="BN219" s="1"/>
     </row>
-    <row r="220" spans="1:66" ht="18">
+    <row r="220" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -16300,7 +16175,7 @@
       <c r="BM220" s="1"/>
       <c r="BN220" s="1"/>
     </row>
-    <row r="221" spans="1:66" ht="18">
+    <row r="221" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -16368,7 +16243,7 @@
       <c r="BM221" s="1"/>
       <c r="BN221" s="1"/>
     </row>
-    <row r="222" spans="1:66" ht="18">
+    <row r="222" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -16436,7 +16311,7 @@
       <c r="BM222" s="1"/>
       <c r="BN222" s="1"/>
     </row>
-    <row r="223" spans="1:66" ht="18">
+    <row r="223" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -16504,7 +16379,7 @@
       <c r="BM223" s="1"/>
       <c r="BN223" s="1"/>
     </row>
-    <row r="224" spans="1:66" ht="18">
+    <row r="224" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -16572,7 +16447,7 @@
       <c r="BM224" s="1"/>
       <c r="BN224" s="1"/>
     </row>
-    <row r="225" spans="1:66" ht="18">
+    <row r="225" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -16640,7 +16515,7 @@
       <c r="BM225" s="1"/>
       <c r="BN225" s="1"/>
     </row>
-    <row r="226" spans="1:66" ht="18">
+    <row r="226" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -16708,7 +16583,7 @@
       <c r="BM226" s="1"/>
       <c r="BN226" s="1"/>
     </row>
-    <row r="227" spans="1:66" ht="18">
+    <row r="227" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -16776,7 +16651,7 @@
       <c r="BM227" s="1"/>
       <c r="BN227" s="1"/>
     </row>
-    <row r="228" spans="1:66" ht="18">
+    <row r="228" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -16844,7 +16719,7 @@
       <c r="BM228" s="1"/>
       <c r="BN228" s="1"/>
     </row>
-    <row r="229" spans="1:66" ht="18">
+    <row r="229" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -16912,7 +16787,7 @@
       <c r="BM229" s="1"/>
       <c r="BN229" s="1"/>
     </row>
-    <row r="230" spans="1:66" ht="18">
+    <row r="230" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -16980,7 +16855,7 @@
       <c r="BM230" s="1"/>
       <c r="BN230" s="1"/>
     </row>
-    <row r="231" spans="1:66" ht="18">
+    <row r="231" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -17048,7 +16923,7 @@
       <c r="BM231" s="1"/>
       <c r="BN231" s="1"/>
     </row>
-    <row r="232" spans="1:66" ht="18">
+    <row r="232" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -17116,7 +16991,7 @@
       <c r="BM232" s="1"/>
       <c r="BN232" s="1"/>
     </row>
-    <row r="233" spans="1:66" ht="18">
+    <row r="233" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -17184,7 +17059,7 @@
       <c r="BM233" s="1"/>
       <c r="BN233" s="1"/>
     </row>
-    <row r="234" spans="1:66" ht="18">
+    <row r="234" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -17252,7 +17127,7 @@
       <c r="BM234" s="1"/>
       <c r="BN234" s="1"/>
     </row>
-    <row r="235" spans="1:66" ht="18">
+    <row r="235" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -17320,7 +17195,7 @@
       <c r="BM235" s="1"/>
       <c r="BN235" s="1"/>
     </row>
-    <row r="236" spans="1:66" ht="18">
+    <row r="236" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -17388,7 +17263,7 @@
       <c r="BM236" s="1"/>
       <c r="BN236" s="1"/>
     </row>
-    <row r="237" spans="1:66" ht="18">
+    <row r="237" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -17456,7 +17331,7 @@
       <c r="BM237" s="1"/>
       <c r="BN237" s="1"/>
     </row>
-    <row r="238" spans="1:66" ht="18">
+    <row r="238" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -17524,7 +17399,7 @@
       <c r="BM238" s="1"/>
       <c r="BN238" s="1"/>
     </row>
-    <row r="239" spans="1:66" ht="18">
+    <row r="239" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -17592,7 +17467,7 @@
       <c r="BM239" s="1"/>
       <c r="BN239" s="1"/>
     </row>
-    <row r="240" spans="1:66" ht="18">
+    <row r="240" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -17660,7 +17535,7 @@
       <c r="BM240" s="1"/>
       <c r="BN240" s="1"/>
     </row>
-    <row r="241" spans="1:66" ht="18">
+    <row r="241" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -17728,7 +17603,7 @@
       <c r="BM241" s="1"/>
       <c r="BN241" s="1"/>
     </row>
-    <row r="242" spans="1:66" ht="18">
+    <row r="242" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -17796,7 +17671,7 @@
       <c r="BM242" s="1"/>
       <c r="BN242" s="1"/>
     </row>
-    <row r="243" spans="1:66" ht="18">
+    <row r="243" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -17864,7 +17739,7 @@
       <c r="BM243" s="1"/>
       <c r="BN243" s="1"/>
     </row>
-    <row r="244" spans="1:66" ht="18">
+    <row r="244" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -17932,7 +17807,7 @@
       <c r="BM244" s="1"/>
       <c r="BN244" s="1"/>
     </row>
-    <row r="245" spans="1:66" ht="18">
+    <row r="245" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -18000,7 +17875,7 @@
       <c r="BM245" s="1"/>
       <c r="BN245" s="1"/>
     </row>
-    <row r="246" spans="1:66" ht="18">
+    <row r="246" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -18068,7 +17943,7 @@
       <c r="BM246" s="1"/>
       <c r="BN246" s="1"/>
     </row>
-    <row r="247" spans="1:66" ht="18">
+    <row r="247" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -18136,7 +18011,7 @@
       <c r="BM247" s="1"/>
       <c r="BN247" s="1"/>
     </row>
-    <row r="248" spans="1:66" ht="18">
+    <row r="248" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -18204,7 +18079,7 @@
       <c r="BM248" s="1"/>
       <c r="BN248" s="1"/>
     </row>
-    <row r="249" spans="1:66" ht="18">
+    <row r="249" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -18272,7 +18147,7 @@
       <c r="BM249" s="1"/>
       <c r="BN249" s="1"/>
     </row>
-    <row r="250" spans="1:66" ht="18">
+    <row r="250" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -18340,7 +18215,7 @@
       <c r="BM250" s="1"/>
       <c r="BN250" s="1"/>
     </row>
-    <row r="251" spans="1:66" ht="18">
+    <row r="251" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -18408,7 +18283,7 @@
       <c r="BM251" s="1"/>
       <c r="BN251" s="1"/>
     </row>
-    <row r="252" spans="1:66" ht="18">
+    <row r="252" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -18476,7 +18351,7 @@
       <c r="BM252" s="1"/>
       <c r="BN252" s="1"/>
     </row>
-    <row r="253" spans="1:66" ht="18">
+    <row r="253" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -18544,7 +18419,7 @@
       <c r="BM253" s="1"/>
       <c r="BN253" s="1"/>
     </row>
-    <row r="254" spans="1:66" ht="18">
+    <row r="254" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -18612,7 +18487,7 @@
       <c r="BM254" s="1"/>
       <c r="BN254" s="1"/>
     </row>
-    <row r="255" spans="1:66" ht="18">
+    <row r="255" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -18680,7 +18555,7 @@
       <c r="BM255" s="1"/>
       <c r="BN255" s="1"/>
     </row>
-    <row r="256" spans="1:66" ht="18">
+    <row r="256" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -18748,7 +18623,7 @@
       <c r="BM256" s="1"/>
       <c r="BN256" s="1"/>
     </row>
-    <row r="257" spans="1:66" ht="18">
+    <row r="257" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -18816,7 +18691,7 @@
       <c r="BM257" s="1"/>
       <c r="BN257" s="1"/>
     </row>
-    <row r="258" spans="1:66" ht="18">
+    <row r="258" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -18884,7 +18759,7 @@
       <c r="BM258" s="1"/>
       <c r="BN258" s="1"/>
     </row>
-    <row r="259" spans="1:66" ht="18">
+    <row r="259" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -18952,7 +18827,7 @@
       <c r="BM259" s="1"/>
       <c r="BN259" s="1"/>
     </row>
-    <row r="260" spans="1:66" ht="18">
+    <row r="260" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -19020,7 +18895,7 @@
       <c r="BM260" s="1"/>
       <c r="BN260" s="1"/>
     </row>
-    <row r="261" spans="1:66" ht="18">
+    <row r="261" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -19088,7 +18963,7 @@
       <c r="BM261" s="1"/>
       <c r="BN261" s="1"/>
     </row>
-    <row r="262" spans="1:66" ht="18">
+    <row r="262" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -19156,7 +19031,7 @@
       <c r="BM262" s="1"/>
       <c r="BN262" s="1"/>
     </row>
-    <row r="263" spans="1:66" ht="18">
+    <row r="263" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -19224,7 +19099,7 @@
       <c r="BM263" s="1"/>
       <c r="BN263" s="1"/>
     </row>
-    <row r="264" spans="1:66" ht="18">
+    <row r="264" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -19292,7 +19167,7 @@
       <c r="BM264" s="1"/>
       <c r="BN264" s="1"/>
     </row>
-    <row r="265" spans="1:66" ht="18">
+    <row r="265" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -19360,7 +19235,7 @@
       <c r="BM265" s="1"/>
       <c r="BN265" s="1"/>
     </row>
-    <row r="266" spans="1:66" ht="18">
+    <row r="266" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -19428,7 +19303,7 @@
       <c r="BM266" s="1"/>
       <c r="BN266" s="1"/>
     </row>
-    <row r="267" spans="1:66" ht="18">
+    <row r="267" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -19496,7 +19371,7 @@
       <c r="BM267" s="1"/>
       <c r="BN267" s="1"/>
     </row>
-    <row r="268" spans="1:66" ht="18">
+    <row r="268" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -19564,7 +19439,7 @@
       <c r="BM268" s="1"/>
       <c r="BN268" s="1"/>
     </row>
-    <row r="269" spans="1:66" ht="18">
+    <row r="269" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -19632,7 +19507,7 @@
       <c r="BM269" s="1"/>
       <c r="BN269" s="1"/>
     </row>
-    <row r="270" spans="1:66" ht="18">
+    <row r="270" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -19700,7 +19575,7 @@
       <c r="BM270" s="1"/>
       <c r="BN270" s="1"/>
     </row>
-    <row r="271" spans="1:66" ht="18">
+    <row r="271" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -19768,7 +19643,7 @@
       <c r="BM271" s="1"/>
       <c r="BN271" s="1"/>
     </row>
-    <row r="272" spans="1:66" ht="18">
+    <row r="272" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -19836,7 +19711,7 @@
       <c r="BM272" s="1"/>
       <c r="BN272" s="1"/>
     </row>
-    <row r="273" spans="1:66" ht="18">
+    <row r="273" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -19904,7 +19779,7 @@
       <c r="BM273" s="1"/>
       <c r="BN273" s="1"/>
     </row>
-    <row r="274" spans="1:66" ht="18">
+    <row r="274" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -19972,7 +19847,7 @@
       <c r="BM274" s="1"/>
       <c r="BN274" s="1"/>
     </row>
-    <row r="275" spans="1:66" ht="18">
+    <row r="275" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -20040,7 +19915,7 @@
       <c r="BM275" s="1"/>
       <c r="BN275" s="1"/>
     </row>
-    <row r="276" spans="1:66" ht="18">
+    <row r="276" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -20108,7 +19983,7 @@
       <c r="BM276" s="1"/>
       <c r="BN276" s="1"/>
     </row>
-    <row r="277" spans="1:66" ht="18">
+    <row r="277" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -20176,7 +20051,7 @@
       <c r="BM277" s="1"/>
       <c r="BN277" s="1"/>
     </row>
-    <row r="278" spans="1:66" ht="18">
+    <row r="278" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -20244,7 +20119,7 @@
       <c r="BM278" s="1"/>
       <c r="BN278" s="1"/>
     </row>
-    <row r="279" spans="1:66" ht="18">
+    <row r="279" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -20312,7 +20187,7 @@
       <c r="BM279" s="1"/>
       <c r="BN279" s="1"/>
     </row>
-    <row r="280" spans="1:66" ht="18">
+    <row r="280" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -20380,7 +20255,7 @@
       <c r="BM280" s="1"/>
       <c r="BN280" s="1"/>
     </row>
-    <row r="281" spans="1:66" ht="18">
+    <row r="281" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -20448,7 +20323,7 @@
       <c r="BM281" s="1"/>
       <c r="BN281" s="1"/>
     </row>
-    <row r="282" spans="1:66" ht="18">
+    <row r="282" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -20516,7 +20391,7 @@
       <c r="BM282" s="1"/>
       <c r="BN282" s="1"/>
     </row>
-    <row r="283" spans="1:66" ht="18">
+    <row r="283" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -20584,7 +20459,7 @@
       <c r="BM283" s="1"/>
       <c r="BN283" s="1"/>
     </row>
-    <row r="284" spans="1:66" ht="18">
+    <row r="284" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -20652,7 +20527,7 @@
       <c r="BM284" s="1"/>
       <c r="BN284" s="1"/>
     </row>
-    <row r="285" spans="1:66" ht="18">
+    <row r="285" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -20720,7 +20595,7 @@
       <c r="BM285" s="1"/>
       <c r="BN285" s="1"/>
     </row>
-    <row r="286" spans="1:66" ht="18">
+    <row r="286" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -20788,7 +20663,7 @@
       <c r="BM286" s="1"/>
       <c r="BN286" s="1"/>
     </row>
-    <row r="287" spans="1:66" ht="18">
+    <row r="287" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -20856,7 +20731,7 @@
       <c r="BM287" s="1"/>
       <c r="BN287" s="1"/>
     </row>
-    <row r="288" spans="1:66" ht="18">
+    <row r="288" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -20924,7 +20799,7 @@
       <c r="BM288" s="1"/>
       <c r="BN288" s="1"/>
     </row>
-    <row r="289" spans="1:66" ht="18">
+    <row r="289" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -20992,7 +20867,7 @@
       <c r="BM289" s="1"/>
       <c r="BN289" s="1"/>
     </row>
-    <row r="290" spans="1:66" ht="18">
+    <row r="290" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -21060,7 +20935,7 @@
       <c r="BM290" s="1"/>
       <c r="BN290" s="1"/>
     </row>
-    <row r="291" spans="1:66" ht="18">
+    <row r="291" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -21128,7 +21003,7 @@
       <c r="BM291" s="1"/>
       <c r="BN291" s="1"/>
     </row>
-    <row r="292" spans="1:66" ht="18">
+    <row r="292" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -21196,7 +21071,7 @@
       <c r="BM292" s="1"/>
       <c r="BN292" s="1"/>
     </row>
-    <row r="293" spans="1:66" ht="18">
+    <row r="293" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -21264,7 +21139,7 @@
       <c r="BM293" s="1"/>
       <c r="BN293" s="1"/>
     </row>
-    <row r="294" spans="1:66" ht="18">
+    <row r="294" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -21332,7 +21207,7 @@
       <c r="BM294" s="1"/>
       <c r="BN294" s="1"/>
     </row>
-    <row r="295" spans="1:66" ht="18">
+    <row r="295" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -21400,7 +21275,7 @@
       <c r="BM295" s="1"/>
       <c r="BN295" s="1"/>
     </row>
-    <row r="296" spans="1:66" ht="18">
+    <row r="296" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -21468,7 +21343,7 @@
       <c r="BM296" s="1"/>
       <c r="BN296" s="1"/>
     </row>
-    <row r="297" spans="1:66" ht="18">
+    <row r="297" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -21536,7 +21411,7 @@
       <c r="BM297" s="1"/>
       <c r="BN297" s="1"/>
     </row>
-    <row r="298" spans="1:66" ht="18">
+    <row r="298" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -21604,7 +21479,7 @@
       <c r="BM298" s="1"/>
       <c r="BN298" s="1"/>
     </row>
-    <row r="299" spans="1:66" ht="18">
+    <row r="299" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -21672,7 +21547,7 @@
       <c r="BM299" s="1"/>
       <c r="BN299" s="1"/>
     </row>
-    <row r="300" spans="1:66" ht="18">
+    <row r="300" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -21740,7 +21615,7 @@
       <c r="BM300" s="1"/>
       <c r="BN300" s="1"/>
     </row>
-    <row r="301" spans="1:66" ht="18">
+    <row r="301" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -21808,7 +21683,7 @@
       <c r="BM301" s="1"/>
       <c r="BN301" s="1"/>
     </row>
-    <row r="302" spans="1:66" ht="18">
+    <row r="302" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -21876,7 +21751,7 @@
       <c r="BM302" s="1"/>
       <c r="BN302" s="1"/>
     </row>
-    <row r="303" spans="1:66" ht="18">
+    <row r="303" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -21944,7 +21819,7 @@
       <c r="BM303" s="1"/>
       <c r="BN303" s="1"/>
     </row>
-    <row r="304" spans="1:66" ht="18">
+    <row r="304" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -22012,7 +21887,7 @@
       <c r="BM304" s="1"/>
       <c r="BN304" s="1"/>
     </row>
-    <row r="305" spans="1:66" ht="18">
+    <row r="305" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -22080,7 +21955,7 @@
       <c r="BM305" s="1"/>
       <c r="BN305" s="1"/>
     </row>
-    <row r="306" spans="1:66" ht="18">
+    <row r="306" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -22148,7 +22023,7 @@
       <c r="BM306" s="1"/>
       <c r="BN306" s="1"/>
     </row>
-    <row r="307" spans="1:66" ht="18">
+    <row r="307" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -22216,7 +22091,7 @@
       <c r="BM307" s="1"/>
       <c r="BN307" s="1"/>
     </row>
-    <row r="308" spans="1:66" ht="18">
+    <row r="308" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -22284,7 +22159,7 @@
       <c r="BM308" s="1"/>
       <c r="BN308" s="1"/>
     </row>
-    <row r="309" spans="1:66" ht="18">
+    <row r="309" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -22352,7 +22227,7 @@
       <c r="BM309" s="1"/>
       <c r="BN309" s="1"/>
     </row>
-    <row r="310" spans="1:66" ht="18">
+    <row r="310" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -22420,7 +22295,7 @@
       <c r="BM310" s="1"/>
       <c r="BN310" s="1"/>
     </row>
-    <row r="311" spans="1:66" ht="18">
+    <row r="311" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -22488,7 +22363,7 @@
       <c r="BM311" s="1"/>
       <c r="BN311" s="1"/>
     </row>
-    <row r="312" spans="1:66" ht="18">
+    <row r="312" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -22556,7 +22431,7 @@
       <c r="BM312" s="1"/>
       <c r="BN312" s="1"/>
     </row>
-    <row r="313" spans="1:66" ht="18">
+    <row r="313" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -22624,7 +22499,7 @@
       <c r="BM313" s="1"/>
       <c r="BN313" s="1"/>
     </row>
-    <row r="314" spans="1:66" ht="18">
+    <row r="314" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -22692,7 +22567,7 @@
       <c r="BM314" s="1"/>
       <c r="BN314" s="1"/>
     </row>
-    <row r="315" spans="1:66" ht="18">
+    <row r="315" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -22760,7 +22635,7 @@
       <c r="BM315" s="1"/>
       <c r="BN315" s="1"/>
     </row>
-    <row r="316" spans="1:66" ht="18">
+    <row r="316" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -22828,7 +22703,7 @@
       <c r="BM316" s="1"/>
       <c r="BN316" s="1"/>
     </row>
-    <row r="317" spans="1:66" ht="18">
+    <row r="317" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -22896,7 +22771,7 @@
       <c r="BM317" s="1"/>
       <c r="BN317" s="1"/>
     </row>
-    <row r="318" spans="1:66" ht="18">
+    <row r="318" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -22964,7 +22839,7 @@
       <c r="BM318" s="1"/>
       <c r="BN318" s="1"/>
     </row>
-    <row r="319" spans="1:66" ht="18">
+    <row r="319" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -23032,7 +22907,7 @@
       <c r="BM319" s="1"/>
       <c r="BN319" s="1"/>
     </row>
-    <row r="320" spans="1:66" ht="18">
+    <row r="320" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -23100,7 +22975,7 @@
       <c r="BM320" s="1"/>
       <c r="BN320" s="1"/>
     </row>
-    <row r="321" spans="1:66" ht="18">
+    <row r="321" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -23168,7 +23043,7 @@
       <c r="BM321" s="1"/>
       <c r="BN321" s="1"/>
     </row>
-    <row r="322" spans="1:66" ht="18">
+    <row r="322" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -23236,7 +23111,7 @@
       <c r="BM322" s="1"/>
       <c r="BN322" s="1"/>
     </row>
-    <row r="323" spans="1:66" ht="18">
+    <row r="323" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -23304,7 +23179,7 @@
       <c r="BM323" s="1"/>
       <c r="BN323" s="1"/>
     </row>
-    <row r="324" spans="1:66" ht="18">
+    <row r="324" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -23372,7 +23247,7 @@
       <c r="BM324" s="1"/>
       <c r="BN324" s="1"/>
     </row>
-    <row r="325" spans="1:66" ht="18">
+    <row r="325" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -23440,7 +23315,7 @@
       <c r="BM325" s="1"/>
       <c r="BN325" s="1"/>
     </row>
-    <row r="326" spans="1:66" ht="18">
+    <row r="326" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -23508,7 +23383,7 @@
       <c r="BM326" s="1"/>
       <c r="BN326" s="1"/>
     </row>
-    <row r="327" spans="1:66" ht="18">
+    <row r="327" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -23576,7 +23451,7 @@
       <c r="BM327" s="1"/>
       <c r="BN327" s="1"/>
     </row>
-    <row r="328" spans="1:66" ht="18">
+    <row r="328" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -23644,7 +23519,7 @@
       <c r="BM328" s="1"/>
       <c r="BN328" s="1"/>
     </row>
-    <row r="329" spans="1:66" ht="18">
+    <row r="329" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -23712,7 +23587,7 @@
       <c r="BM329" s="1"/>
       <c r="BN329" s="1"/>
     </row>
-    <row r="330" spans="1:66" ht="18">
+    <row r="330" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -23780,7 +23655,7 @@
       <c r="BM330" s="1"/>
       <c r="BN330" s="1"/>
     </row>
-    <row r="331" spans="1:66" ht="18">
+    <row r="331" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -23848,7 +23723,7 @@
       <c r="BM331" s="1"/>
       <c r="BN331" s="1"/>
     </row>
-    <row r="332" spans="1:66" ht="18">
+    <row r="332" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -23916,7 +23791,7 @@
       <c r="BM332" s="1"/>
       <c r="BN332" s="1"/>
     </row>
-    <row r="333" spans="1:66" ht="18">
+    <row r="333" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -23984,7 +23859,7 @@
       <c r="BM333" s="1"/>
       <c r="BN333" s="1"/>
     </row>
-    <row r="334" spans="1:66" ht="18">
+    <row r="334" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -24052,7 +23927,7 @@
       <c r="BM334" s="1"/>
       <c r="BN334" s="1"/>
     </row>
-    <row r="335" spans="1:66" ht="18">
+    <row r="335" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -24120,7 +23995,7 @@
       <c r="BM335" s="1"/>
       <c r="BN335" s="1"/>
     </row>
-    <row r="336" spans="1:66" ht="18">
+    <row r="336" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -24188,7 +24063,7 @@
       <c r="BM336" s="1"/>
       <c r="BN336" s="1"/>
     </row>
-    <row r="337" spans="1:66" ht="18">
+    <row r="337" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -24256,7 +24131,7 @@
       <c r="BM337" s="1"/>
       <c r="BN337" s="1"/>
     </row>
-    <row r="338" spans="1:66" ht="18">
+    <row r="338" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -24324,7 +24199,7 @@
       <c r="BM338" s="1"/>
       <c r="BN338" s="1"/>
     </row>
-    <row r="339" spans="1:66" ht="18">
+    <row r="339" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -24392,7 +24267,7 @@
       <c r="BM339" s="1"/>
       <c r="BN339" s="1"/>
     </row>
-    <row r="340" spans="1:66" ht="18">
+    <row r="340" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -24460,7 +24335,7 @@
       <c r="BM340" s="1"/>
       <c r="BN340" s="1"/>
     </row>
-    <row r="341" spans="1:66" ht="18">
+    <row r="341" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -24528,7 +24403,7 @@
       <c r="BM341" s="1"/>
       <c r="BN341" s="1"/>
     </row>
-    <row r="342" spans="1:66" ht="18">
+    <row r="342" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -24596,7 +24471,7 @@
       <c r="BM342" s="1"/>
       <c r="BN342" s="1"/>
     </row>
-    <row r="343" spans="1:66" ht="18">
+    <row r="343" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -24664,7 +24539,7 @@
       <c r="BM343" s="1"/>
       <c r="BN343" s="1"/>
     </row>
-    <row r="344" spans="1:66" ht="18">
+    <row r="344" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -24732,7 +24607,7 @@
       <c r="BM344" s="1"/>
       <c r="BN344" s="1"/>
     </row>
-    <row r="345" spans="1:66" ht="18">
+    <row r="345" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -24800,7 +24675,7 @@
       <c r="BM345" s="1"/>
       <c r="BN345" s="1"/>
     </row>
-    <row r="346" spans="1:66" ht="18">
+    <row r="346" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -24868,7 +24743,7 @@
       <c r="BM346" s="1"/>
       <c r="BN346" s="1"/>
     </row>
-    <row r="347" spans="1:66" ht="18">
+    <row r="347" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -24938,6 +24813,226 @@
     </row>
   </sheetData>
   <mergeCells count="244">
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="K7:L7"/>
@@ -24962,226 +25057,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25201,9 +25076,9 @@
       <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="84" customHeight="1">
+    <row r="1" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -25222,19 +25097,19 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>42</v>
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -25243,20 +25118,20 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>43</v>
+    <row r="3" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>36</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -25264,20 +25139,20 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>44</v>
+    <row r="4" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>37</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -25285,17 +25160,17 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="18">
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="36" t="s">
-        <v>45</v>
+      <c r="E5" s="27" t="s">
+        <v>38</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -25306,19 +25181,19 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="35.1" customHeight="1">
+    <row r="6" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="33" t="s">
-        <v>46</v>
+      <c r="C6" s="28" t="s">
+        <v>39</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="12"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -25327,19 +25202,19 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="35.1" customHeight="1">
+    <row r="7" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="33" t="s">
-        <v>47</v>
+      <c r="C7" s="28" t="s">
+        <v>40</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -25348,19 +25223,19 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="35.1" customHeight="1">
+    <row r="8" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="33" t="s">
-        <v>48</v>
+      <c r="C8" s="28" t="s">
+        <v>41</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -25369,7 +25244,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="18">
+    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -25388,19 +25263,19 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="66" customHeight="1">
+    <row r="10" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="37" t="s">
-        <v>49</v>
+      <c r="C10" s="31" t="s">
+        <v>42</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -25409,89 +25284,89 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="35.1" customHeight="1">
+    <row r="11" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="33" t="s">
-        <v>50</v>
+      <c r="C11" s="28" t="s">
+        <v>43</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="12"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="35.1" customHeight="1">
+    <row r="12" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="33" t="s">
-        <v>51</v>
+      <c r="C12" s="28" t="s">
+        <v>44</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="35.1" customHeight="1">
+    <row r="13" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="12" t="s">
-        <v>52</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="35.1" customHeight="1">
+    <row r="14" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="18">
+    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -25510,18 +25385,18 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="36" customHeight="1">
+    <row r="16" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="36" t="s">
-        <v>53</v>
+      <c r="E16" s="27" t="s">
+        <v>46</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -25531,70 +25406,70 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="35.1" customHeight="1">
+    <row r="17" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="33" t="s">
-        <v>54</v>
+      <c r="C17" s="28" t="s">
+        <v>47</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="12"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="35.1" customHeight="1">
+    <row r="18" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="33" t="s">
-        <v>55</v>
+      <c r="C18" s="28" t="s">
+        <v>48</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="35.1" customHeight="1">
+    <row r="19" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="33" t="s">
-        <v>56</v>
+      <c r="C19" s="28" t="s">
+        <v>49</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="18">
+    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -25613,7 +25488,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="18">
+    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -25632,7 +25507,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="18">
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -25651,7 +25526,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="18">
+    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -25670,7 +25545,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="18">
+    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -25689,7 +25564,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="18">
+    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -25708,7 +25583,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="18">
+    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -25727,7 +25602,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="18">
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -25746,7 +25621,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="18">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -25765,7 +25640,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="18">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -25784,7 +25659,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="18">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -25803,7 +25678,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="18">
+    <row r="31" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -25822,7 +25697,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="18">
+    <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -25841,7 +25716,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="18">
+    <row r="33" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -25860,7 +25735,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="18">
+    <row r="34" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -25879,7 +25754,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="18">
+    <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -25898,7 +25773,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="18">
+    <row r="36" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -25917,7 +25792,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="18">
+    <row r="37" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -25936,7 +25811,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="18">
+    <row r="38" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -25955,7 +25830,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="18">
+    <row r="39" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -25974,7 +25849,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="18">
+    <row r="40" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -25993,7 +25868,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="18">
+    <row r="41" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -26012,7 +25887,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="18">
+    <row r="42" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -26031,7 +25906,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="18">
+    <row r="43" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -26050,7 +25925,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="18">
+    <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -26069,7 +25944,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="18">
+    <row r="45" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -26088,7 +25963,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="18">
+    <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -26107,7 +25982,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="18">
+    <row r="47" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -26126,7 +26001,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="18">
+    <row r="48" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -26145,7 +26020,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="18">
+    <row r="49" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -26164,7 +26039,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="18">
+    <row r="50" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -26183,7 +26058,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="18">
+    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -26202,7 +26077,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="18">
+    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -26221,7 +26096,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="18">
+    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -26240,7 +26115,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="18">
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -26259,7 +26134,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="18">
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -26278,7 +26153,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="18">
+    <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -26297,7 +26172,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="18">
+    <row r="57" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -26316,7 +26191,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="18">
+    <row r="58" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -26335,7 +26210,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="18">
+    <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -26354,7 +26229,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="18">
+    <row r="60" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -26373,7 +26248,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="18">
+    <row r="61" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -26392,7 +26267,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="18">
+    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -26411,7 +26286,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="18">
+    <row r="63" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -26430,7 +26305,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="18">
+    <row r="64" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -26449,7 +26324,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="18">
+    <row r="65" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -26468,7 +26343,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="18">
+    <row r="66" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -26487,7 +26362,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="18">
+    <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -26506,7 +26381,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="18">
+    <row r="68" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -26525,7 +26400,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="18">
+    <row r="69" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -26544,7 +26419,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="18">
+    <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -26563,7 +26438,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="18">
+    <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -26582,7 +26457,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="18">
+    <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -26601,7 +26476,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="18">
+    <row r="73" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -26620,7 +26495,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="18">
+    <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -26639,7 +26514,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="18">
+    <row r="75" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -26658,7 +26533,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="18">
+    <row r="76" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -26677,7 +26552,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="18">
+    <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -26696,7 +26571,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="18">
+    <row r="78" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -26715,7 +26590,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="18">
+    <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -26734,7 +26609,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="18">
+    <row r="80" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -26753,7 +26628,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="18">
+    <row r="81" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -26772,7 +26647,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="18">
+    <row r="82" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -26791,7 +26666,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="18">
+    <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -26810,7 +26685,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="18">
+    <row r="84" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -26829,7 +26704,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="18">
+    <row r="85" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -26848,7 +26723,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="18">
+    <row r="86" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -26867,7 +26742,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="18">
+    <row r="87" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -26886,7 +26761,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="18">
+    <row r="88" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -26905,7 +26780,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="18">
+    <row r="89" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -26924,7 +26799,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="18">
+    <row r="90" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -26943,7 +26818,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="18">
+    <row r="91" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -26962,7 +26837,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="18">
+    <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -26981,7 +26856,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="18">
+    <row r="93" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -27000,7 +26875,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="18">
+    <row r="94" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -27019,7 +26894,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="18">
+    <row r="95" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -27038,7 +26913,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="18">
+    <row r="96" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -27057,7 +26932,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="18">
+    <row r="97" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -27076,7 +26951,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="18">
+    <row r="98" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -27095,7 +26970,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="18">
+    <row r="99" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -27114,7 +26989,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="18">
+    <row r="100" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -27133,7 +27008,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="18">
+    <row r="101" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -27152,7 +27027,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="18">
+    <row r="102" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -27171,7 +27046,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="18">
+    <row r="103" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -27190,7 +27065,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="18">
+    <row r="104" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -27209,7 +27084,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="18">
+    <row r="105" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -27228,7 +27103,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="18">
+    <row r="106" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -27247,7 +27122,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="18">
+    <row r="107" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -27266,7 +27141,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="18">
+    <row r="108" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -27285,7 +27160,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="18">
+    <row r="109" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -27304,7 +27179,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="18">
+    <row r="110" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -27323,7 +27198,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="18">
+    <row r="111" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -27342,7 +27217,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="18">
+    <row r="112" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -27361,7 +27236,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="18">
+    <row r="113" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -27380,7 +27255,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="18">
+    <row r="114" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -27399,7 +27274,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="18">
+    <row r="115" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -27418,7 +27293,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="18">
+    <row r="116" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -27437,7 +27312,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="18">
+    <row r="117" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -27456,7 +27331,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="18">
+    <row r="118" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -27475,7 +27350,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="18">
+    <row r="119" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -27494,7 +27369,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="18">
+    <row r="120" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -27513,7 +27388,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="18">
+    <row r="121" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -27532,7 +27407,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="18">
+    <row r="122" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -27551,7 +27426,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:17" ht="18">
+    <row r="123" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -27570,7 +27445,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:17" ht="18">
+    <row r="124" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -27589,7 +27464,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:17" ht="18">
+    <row r="125" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -27608,7 +27483,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="1:17" ht="18">
+    <row r="126" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -27627,7 +27502,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" ht="18">
+    <row r="127" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -27646,7 +27521,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" ht="18">
+    <row r="128" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -27665,7 +27540,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="1:17" ht="18">
+    <row r="129" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -27684,7 +27559,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="1:17" ht="18">
+    <row r="130" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -27703,7 +27578,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="1:17" ht="18">
+    <row r="131" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -27722,7 +27597,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="1:17" ht="18">
+    <row r="132" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -27741,7 +27616,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="1:17" ht="18">
+    <row r="133" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -27760,7 +27635,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="1:17" ht="18">
+    <row r="134" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -27779,7 +27654,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="1:17" ht="18">
+    <row r="135" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -27798,7 +27673,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="1:17" ht="18">
+    <row r="136" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -27817,7 +27692,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="1:17" ht="18">
+    <row r="137" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -27836,7 +27711,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" ht="18">
+    <row r="138" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -27855,7 +27730,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="1:17" ht="18">
+    <row r="139" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -27874,7 +27749,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="1:17" ht="18">
+    <row r="140" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -27893,7 +27768,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="1:17" ht="18">
+    <row r="141" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -27912,7 +27787,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="1:17" ht="18">
+    <row r="142" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -27931,7 +27806,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="1:17" ht="18">
+    <row r="143" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -27950,7 +27825,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="1:17" ht="18">
+    <row r="144" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -27969,7 +27844,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="1:17" ht="18">
+    <row r="145" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -27988,7 +27863,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="1:17" ht="18">
+    <row r="146" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -28007,7 +27882,7 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="1:17" ht="18">
+    <row r="147" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -28026,7 +27901,7 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" ht="18">
+    <row r="148" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -28045,7 +27920,7 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="1:17" ht="18">
+    <row r="149" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -28064,7 +27939,7 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
     </row>
-    <row r="150" spans="1:17" ht="18">
+    <row r="150" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -28083,7 +27958,7 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
     </row>
-    <row r="151" spans="1:17" ht="18">
+    <row r="151" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -28102,7 +27977,7 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
     </row>
-    <row r="152" spans="1:17" ht="18">
+    <row r="152" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -28121,7 +27996,7 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" ht="18">
+    <row r="153" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -28140,7 +28015,7 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
     </row>
-    <row r="154" spans="1:17" ht="18">
+    <row r="154" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -28159,7 +28034,7 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17" ht="18">
+    <row r="155" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -28178,7 +28053,7 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
     </row>
-    <row r="156" spans="1:17" ht="18">
+    <row r="156" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -28197,7 +28072,7 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
     </row>
-    <row r="157" spans="1:17" ht="18">
+    <row r="157" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -28216,7 +28091,7 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" ht="18">
+    <row r="158" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -28235,7 +28110,7 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="1:17" ht="18">
+    <row r="159" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -28254,7 +28129,7 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
     </row>
-    <row r="160" spans="1:17" ht="18">
+    <row r="160" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -28273,7 +28148,7 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
     </row>
-    <row r="161" spans="1:17" ht="18">
+    <row r="161" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -28292,7 +28167,7 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
     </row>
-    <row r="162" spans="1:17" ht="18">
+    <row r="162" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -28313,12 +28188,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:M12"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A3:K3"/>
@@ -28327,6 +28196,12 @@
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:M12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28477,18 +28352,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28510,18 +28385,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B91AA277-BE3E-42A6-A3FF-135855528A07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DF059D-C533-4527-9E18-169F69E40421}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B91AA277-BE3E-42A6-A3FF-135855528A07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>